--- a/biology/Zoologie/Allactaga/Allactaga.xlsx
+++ b/biology/Zoologie/Allactaga/Allactaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Allactaga, appelé four and five-toed jerboas (Gerboises à quatre ou cinq orteils) par les anglophones.
 </t>
@@ -511,26 +523,28 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (29 mai 2016)[1], 12 espèces réparties dans 4 sous-genres :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (29 mai 2016), 12 espèces réparties dans 4 sous-genres :
 sous-genre Allactaga (Allactaga)
-Allactaga elater - Petite gerboise[2]
+Allactaga elater - Petite gerboise
 Allactaga firouzi
 Allactaga hotsoni
 Allactaga major
 Allactaga severtzovi
-Allactaga vinogradovi - Gerboise de Vinogradov[2]
+Allactaga vinogradovi - Gerboise de Vinogradov
 sous-genre Allactaga (Orientallactaga)
 Allactaga balikunica
-Allactaga bullata - Gerboise de Gobi[2]
-Allactaga sibirica - Gerboise de Sibérie[2]
+Allactaga bullata - Gerboise de Gobi
+Allactaga sibirica - Gerboise de Sibérie
 sous-genre Allactaga (Paralactaga)
 Allactaga euphratica
 Allactaga williamsi
 sous-genre Allactaga (Scarturus)
-Allactaga tetradactyla - Gerboise à quatre doigts[2]
-Selon ITIS      (29 mai 2016)[3], 12 espèces :
+Allactaga tetradactyla - Gerboise à quatre doigts
+Selon ITIS      (29 mai 2016), 12 espèces :
 Allactaga toussi Darvish, Hajjar, Matin, Haddad and Akbary rad, 2008
 sous-genre Allactaga (Allactaga) F. Cuvier, 1837
 Allactaga elater (Lichtenstein, 1828)
@@ -547,7 +561,7 @@
 Allactaga williamsi Thomas, 1897
 sous-espèce Allactaga (Scarturus) Gloger, 1841
 Allactaga tetradactyla (Lichtenstein, 1823)
-Selon NCBI  (29 mai 2016)[4] il y aurait 11 espèces dans ce genre :
+Selon NCBI  (29 mai 2016) il y aurait 11 espèces dans ce genre :
 Allactaga balikunica
 Allactaga bullata
 Allactaga elater
